--- a/pred_ohlcv/54_21/2019-11-01 BAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 BAT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>39238.9157</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>39238.9157</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>45016.0409</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>45016.0409</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>45016.0409</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>53312.48642553957</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -782,7 +782,7 @@
         <v>25972.34442553957</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>35638.37122553957</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>35638.37122553957</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>33382.24422553957</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>34466.43622553958</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>24466.43622553958</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>24466.43622553958</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>23992.81402553957</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>22081.89442553957</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>30862.04496317398</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>30862.04496317398</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>30863.04496317398</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>30876.86116317398</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>30876.86116317398</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>30867.20526317398</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>30867.20526317398</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>30090.20526317398</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>28827.00546317398</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>28827.00546317398</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>2759.91602743391</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>2759.91602743391</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>2398.78372743391</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>2104.35752743391</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>2106.95522743391</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>2460.81362743391</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>3181.26912743391</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>9221.389127433909</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>15840.18262743391</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>14886.04512743391</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>14886.04512743391</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>15247.33952743391</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-01 BAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 BAT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>39238.9157</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>39238.9157</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>45016.0409</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>45016.0409</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>45016.0409</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>53312.48642553957</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -678,7 +678,7 @@
         <v>53312.48642553957</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>53312.48642553957</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>53607.65062553957</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>25971.34442553957</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>25972.34442553957</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>24508.84422553957</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>39316.20282553957</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>35638.37122553957</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>33382.24422553957</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>24466.43622553958</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>24466.43622553958</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>23992.81402553957</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>22081.89442553957</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>30867.20526317398</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-823.0636725660893</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-1033.591572566089</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-699.2765725660893</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>3621.43282743391</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>2759.91602743391</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>2759.91602743391</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>2759.91602743391</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>2398.78372743391</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>2104.35752743391</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>2106.95522743391</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>2460.81362743391</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>3181.26912743391</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>9221.389127433909</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>15840.18262743391</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>13840.18262743391</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>12637.45542743391</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>12623.77032743391</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>14886.04512743391</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>14886.04512743391</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>15247.33952743391</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
